--- a/src/API/API-test/correct.xlsx
+++ b/src/API/API-test/correct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Persona\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Persona\Desktop\advertising_detection-Lexa-K-branch\src\API\API-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -682,7 +682,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,7 +690,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -778,7 +778,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -802,7 +802,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -882,7 +882,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -906,7 +906,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">

--- a/src/API/API-test/correct.xlsx
+++ b/src/API/API-test/correct.xlsx
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
